--- a/functions/menus/menu2.xlsx
+++ b/functions/menus/menu2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aknar\Documents\GitHub\mall-restaurant\functions\menus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4620B647-EB1E-48EC-A5CA-735E6EA1B053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1331F774-58F2-458E-8D13-281ABB0CFE70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{647861D3-CC87-4C52-A90C-C0D3CBF055D1}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{647861D3-CC87-4C52-A90C-C0D3CBF055D1}"/>
   </bookViews>
   <sheets>
     <sheet name="italian" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>pizza</t>
   </si>
   <si>
     <t>farm fresh</t>
+  </si>
+  <si>
+    <t>matar malai methi</t>
+  </si>
+  <si>
+    <t>bahut achi</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA81D3C8-4832-4566-B97F-259BB9126E5B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +407,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
